--- a/test/results/01.BasicCodonUsage/C/C.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/C/C.RSCU.xlsx
@@ -253,16 +253,16 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>KU955594</t>
+  </si>
+  <si>
+    <t>LC002520</t>
+  </si>
+  <si>
     <t>KF383118</t>
   </si>
   <si>
     <t>KF383119</t>
-  </si>
-  <si>
-    <t>KU955594</t>
-  </si>
-  <si>
-    <t>LC002520</t>
   </si>
   <si>
     <t>KF383115</t>
@@ -271,10 +271,10 @@
     <t>KF268948</t>
   </si>
   <si>
-    <t>KF268950</t>
+    <t>KF268949</t>
   </si>
   <si>
-    <t>KF268949</t>
+    <t>KF268950</t>
   </si>
   <si>
     <t>KF383116</t>
@@ -283,10 +283,13 @@
     <t>HQ234500</t>
   </si>
   <si>
+    <t>HQ234501</t>
+  </si>
+  <si>
     <t>KU955595</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KU955591</t>
   </si>
   <si>
     <t>KU955592</t>
@@ -296,9 +299,6 @@
   </si>
   <si>
     <t>KF383117</t>
-  </si>
-  <si>
-    <t>KU955591</t>
   </si>
   <si>
     <t>HQ234499</t>
@@ -319,16 +319,16 @@
     <t>KU681081</t>
   </si>
   <si>
+    <t>KX813683</t>
+  </si>
+  <si>
     <t>KX447517</t>
   </si>
   <si>
-    <t>KX813683</t>
+    <t>KU744693</t>
   </si>
   <si>
     <t>KX197192</t>
-  </si>
-  <si>
-    <t>KU744693</t>
   </si>
   <si>
     <t>KU509998</t>
@@ -337,10 +337,10 @@
     <t>KU321639</t>
   </si>
   <si>
-    <t>KX051563</t>
+    <t>KU527068</t>
   </si>
   <si>
-    <t>KU527068</t>
+    <t>KX051563</t>
   </si>
   <si>
     <t>KX838906</t>
@@ -364,22 +364,22 @@
     <t>KU853012</t>
   </si>
   <si>
+    <t>KU729217</t>
+  </si>
+  <si>
     <t>KU853013</t>
   </si>
   <si>
     <t>KX280026</t>
   </si>
   <si>
-    <t>KU729217</t>
-  </si>
-  <si>
     <t>KX056898</t>
   </si>
   <si>
-    <t>KU955590</t>
+    <t>KX766028</t>
   </si>
   <si>
-    <t>KX766028</t>
+    <t>KU955590</t>
   </si>
   <si>
     <t>KU740184</t>
@@ -388,10 +388,10 @@
     <t>KU761564</t>
   </si>
   <si>
-    <t>KU820898</t>
+    <t>KX087101</t>
   </si>
   <si>
-    <t>KX087101</t>
+    <t>KU820898</t>
   </si>
   <si>
     <t>KU365778</t>
@@ -412,34 +412,34 @@
     <t>KU707826</t>
   </si>
   <si>
+    <t>KU365780</t>
+  </si>
+  <si>
     <t>KU365777</t>
   </si>
   <si>
     <t>KU870645</t>
   </si>
   <si>
-    <t>KU365780</t>
+    <t>KX694534</t>
   </si>
   <si>
-    <t>KX694534</t>
+    <t>KU501216</t>
+  </si>
+  <si>
+    <t>KU501217</t>
   </si>
   <si>
     <t>KX262887</t>
   </si>
   <si>
-    <t>KU501217</t>
-  </si>
-  <si>
-    <t>KU501216</t>
-  </si>
-  <si>
     <t>KX766029</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX247632</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KX446950</t>
   </si>
   <si>
     <t>KX446951</t>
@@ -451,10 +451,10 @@
     <t>KU729218</t>
   </si>
   <si>
-    <t>KX520666</t>
+    <t>KX197205</t>
   </si>
   <si>
-    <t>KX197205</t>
+    <t>KX520666</t>
   </si>
   <si>
     <t>KU497555</t>
@@ -472,13 +472,13 @@
     <t>KU922923</t>
   </si>
   <si>
-    <t>KX198135</t>
-  </si>
-  <si>
     <t>KU922960</t>
   </si>
   <si>
     <t>KX702400</t>
+  </si>
+  <si>
+    <t>KX198135</t>
   </si>
   <si>
     <t>KX247646</t>
@@ -499,10 +499,10 @@
     <t>KX156776</t>
   </si>
   <si>
-    <t>KX447511</t>
+    <t>KX447510</t>
   </si>
   <si>
-    <t>KX447510</t>
+    <t>KX447511</t>
   </si>
   <si>
     <t>KX369547</t>
@@ -523,13 +523,13 @@
     <t>KU955589</t>
   </si>
   <si>
-    <t>KU820899</t>
-  </si>
-  <si>
     <t>KX266255</t>
   </si>
   <si>
     <t>KX185891</t>
+  </si>
+  <si>
+    <t>KU820899</t>
   </si>
   <si>
     <t>KU963796</t>
@@ -1237,16 +1237,16 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="P4">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="Q4">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1312,22 +1312,22 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="AN4">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>1.5</v>
@@ -1601,16 +1601,16 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O6">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="P6">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="Q6">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1676,22 +1676,22 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="AN6">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AS6">
         <v>1.5</v>
@@ -2365,13 +2365,13 @@
         <v>0.71</v>
       </c>
       <c r="Z10">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="AA10">
         <v>2.12</v>
       </c>
       <c r="AB10">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AV10">
         <v>1.5</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AY10">
         <v>2</v>
@@ -2547,13 +2547,13 @@
         <v>0.71</v>
       </c>
       <c r="Z11">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="AA11">
         <v>2.12</v>
       </c>
       <c r="AB11">
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AV11">
         <v>1.5</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AY11">
         <v>2</v>
@@ -3078,16 +3078,16 @@
         <v>0.82</v>
       </c>
       <c r="U14">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="V14">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="W14">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="X14">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="Y14">
         <v>0.71</v>
@@ -3114,13 +3114,13 @@
         <v>1.2</v>
       </c>
       <c r="AG14">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AH14">
         <v>1.6</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -3132,22 +3132,22 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AN14">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AS14">
         <v>1.5</v>
@@ -3260,16 +3260,16 @@
         <v>0.82</v>
       </c>
       <c r="U15">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="V15">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="W15">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="X15">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Y15">
         <v>0.71</v>
@@ -3296,13 +3296,13 @@
         <v>1.2</v>
       </c>
       <c r="AG15">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AH15">
         <v>1.6</v>
       </c>
       <c r="AI15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="AN15">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS15">
         <v>1.5</v>
@@ -3749,7 +3749,7 @@
         <v>93</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="C18">
         <v>1.67</v>
@@ -3758,7 +3758,7 @@
         <v>0.33</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3767,34 +3767,34 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1.71</v>
       </c>
       <c r="O18">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="P18">
         <v>0.57</v>
       </c>
       <c r="Q18">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -3803,19 +3803,19 @@
         <v>2</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="U18">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="V18">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="W18">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="X18">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Y18">
         <v>0.71</v>
@@ -3860,35 +3860,35 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="AN18">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
         <v>1.5</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>3</v>
       </c>
-      <c r="AV18">
-        <v>1.5</v>
-      </c>
       <c r="AW18">
         <v>0</v>
       </c>
@@ -3899,25 +3899,25 @@
         <v>2</v>
       </c>
       <c r="AZ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA18">
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="BD18">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="BE18">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="BF18">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>94</v>
       </c>
       <c r="B19">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1.67</v>
@@ -3940,7 +3940,7 @@
         <v>0.33</v>
       </c>
       <c r="E19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3949,34 +3949,34 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
         <v>1.71</v>
       </c>
       <c r="O19">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="P19">
         <v>0.57</v>
       </c>
       <c r="Q19">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>2</v>
       </c>
       <c r="T19">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="V19">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="W19">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="X19">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="Y19">
         <v>0.71</v>
@@ -4042,35 +4042,35 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AN19">
+        <v>1.85</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0.46</v>
+      </c>
+      <c r="AQ19">
+        <v>0.46</v>
+      </c>
+      <c r="AR19">
+        <v>0.92</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
         <v>1.5</v>
       </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0.5</v>
-      </c>
-      <c r="AQ19">
-        <v>0.5</v>
-      </c>
-      <c r="AR19">
-        <v>1</v>
-      </c>
-      <c r="AS19">
+      <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
         <v>1.5</v>
       </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>1.5</v>
-      </c>
-      <c r="AV19">
-        <v>3</v>
-      </c>
       <c r="AW19">
         <v>0</v>
       </c>
@@ -4081,25 +4081,25 @@
         <v>2</v>
       </c>
       <c r="AZ19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA19">
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="BD19">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="BE19">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="BF19">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -5208,13 +5208,13 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="D26">
         <v>0.33</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="AM26">
+        <v>1.64</v>
+      </c>
+      <c r="AN26">
         <v>2.18</v>
-      </c>
-      <c r="AN26">
-        <v>1.64</v>
       </c>
       <c r="AO26">
         <v>0.55</v>
@@ -5390,13 +5390,13 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="D27">
         <v>0.33</v>
       </c>
       <c r="E27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -5498,10 +5498,10 @@
         <v>0</v>
       </c>
       <c r="AM27">
+        <v>2.18</v>
+      </c>
+      <c r="AN27">
         <v>1.64</v>
-      </c>
-      <c r="AN27">
-        <v>2.18</v>
       </c>
       <c r="AO27">
         <v>0.55</v>
@@ -5593,10 +5593,10 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>1.2</v>
@@ -5686,13 +5686,13 @@
         <v>1.64</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AP28">
         <v>0.55</v>
       </c>
       <c r="AQ28">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AR28">
         <v>0.55</v>
@@ -5775,10 +5775,10 @@
         <v>2</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="L29">
         <v>1.2</v>
@@ -5868,13 +5868,13 @@
         <v>1.64</v>
       </c>
       <c r="AO29">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AP29">
         <v>0.55</v>
       </c>
       <c r="AQ29">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AR29">
         <v>0.55</v>
@@ -6297,13 +6297,13 @@
         <v>107</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="C32">
         <v>1.33</v>
       </c>
       <c r="D32">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1.33</v>
@@ -6479,13 +6479,13 @@
         <v>108</v>
       </c>
       <c r="B33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1.33</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E33">
         <v>1.33</v>
@@ -8663,16 +8663,16 @@
         <v>120</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="C45">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="D45">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="E45">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -8810,16 +8810,16 @@
         <v>0</v>
       </c>
       <c r="AY45">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AZ45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BA45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BB45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BC45">
         <v>0.57</v>
@@ -8845,16 +8845,16 @@
         <v>121</v>
       </c>
       <c r="B46">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="D46">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="E46">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -8992,16 +8992,16 @@
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AZ46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BA46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BB46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BC46">
         <v>0.57</v>
@@ -9415,10 +9415,10 @@
         <v>2</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="L49">
         <v>1.2</v>
@@ -9445,13 +9445,13 @@
         <v>2</v>
       </c>
       <c r="T49">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="U49">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="V49">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>0.88</v>
@@ -9538,16 +9538,16 @@
         <v>0</v>
       </c>
       <c r="AY49">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AZ49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BA49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BB49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BC49">
         <v>0.57</v>
@@ -9597,10 +9597,10 @@
         <v>2</v>
       </c>
       <c r="J50">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>1.2</v>
@@ -9627,13 +9627,13 @@
         <v>2</v>
       </c>
       <c r="T50">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="U50">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W50">
         <v>0.88</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="AY50">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AZ50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BA50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BB50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BC50">
         <v>0.57</v>
@@ -11104,7 +11104,7 @@
         <v>0.75</v>
       </c>
       <c r="AA58">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="AB58">
         <v>0.38</v>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="AE58">
         <v>0.5</v>
@@ -11286,7 +11286,7 @@
         <v>0.75</v>
       </c>
       <c r="AA59">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="AB59">
         <v>0.38</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="AD59">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="AE59">
         <v>0.5</v>
@@ -14562,10 +14562,10 @@
         <v>0.75</v>
       </c>
       <c r="AA77">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="AB77">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -14693,10 +14693,10 @@
         <v>2</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="L78">
         <v>1.2</v>
@@ -14744,10 +14744,10 @@
         <v>0.75</v>
       </c>
       <c r="AA78">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="AB78">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -14875,10 +14875,10 @@
         <v>2</v>
       </c>
       <c r="J79">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>1.2</v>
@@ -16125,7 +16125,7 @@
         <v>161</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="C86">
         <v>1.33</v>
@@ -16134,7 +16134,7 @@
         <v>0.33</v>
       </c>
       <c r="E86">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -16218,7 +16218,7 @@
         <v>1.5</v>
       </c>
       <c r="AG86">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AH86">
         <v>1.6</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="AJ86">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AK86">
         <v>0</v>
@@ -16307,7 +16307,7 @@
         <v>162</v>
       </c>
       <c r="B87">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>1.33</v>
@@ -16316,7 +16316,7 @@
         <v>0.33</v>
       </c>
       <c r="E87">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -16400,7 +16400,7 @@
         <v>1.5</v>
       </c>
       <c r="AG87">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AH87">
         <v>1.6</v>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="AJ87">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AK87">
         <v>0</v>

--- a/test/results/01.BasicCodonUsage/C/C.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/C/C.RSCU.xlsx
@@ -253,6 +253,9 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>KF383119</t>
+  </si>
+  <si>
     <t>KU955594</t>
   </si>
   <si>
@@ -262,43 +265,40 @@
     <t>KF383118</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>KF268950</t>
   </si>
   <si>
     <t>KF383115</t>
   </si>
   <si>
-    <t>KF268948</t>
-  </si>
-  <si>
     <t>KF268949</t>
   </si>
   <si>
-    <t>KF268950</t>
+    <t>KF268948</t>
   </si>
   <si>
     <t>KF383116</t>
   </si>
   <si>
-    <t>HQ234500</t>
+    <t>HQ234501</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>HQ234500</t>
   </si>
   <si>
     <t>KU955595</t>
   </si>
   <si>
+    <t>KU955592</t>
+  </si>
+  <si>
+    <t>KF383117</t>
+  </si>
+  <si>
     <t>KU955591</t>
   </si>
   <si>
-    <t>KU955592</t>
-  </si>
-  <si>
     <t>KX601166</t>
-  </si>
-  <si>
-    <t>KF383117</t>
   </si>
   <si>
     <t>HQ234499</t>
@@ -331,10 +331,10 @@
     <t>KX197192</t>
   </si>
   <si>
-    <t>KU509998</t>
+    <t>KU321639</t>
   </si>
   <si>
-    <t>KU321639</t>
+    <t>KU509998</t>
   </si>
   <si>
     <t>KU527068</t>
@@ -364,10 +364,10 @@
     <t>KU853012</t>
   </si>
   <si>
-    <t>KU729217</t>
+    <t>KU853013</t>
   </si>
   <si>
-    <t>KU853013</t>
+    <t>KU729217</t>
   </si>
   <si>
     <t>KX280026</t>
@@ -376,10 +376,10 @@
     <t>KX056898</t>
   </si>
   <si>
-    <t>KX766028</t>
+    <t>KU955590</t>
   </si>
   <si>
-    <t>KU955590</t>
+    <t>KX766028</t>
   </si>
   <si>
     <t>KU740184</t>
@@ -388,10 +388,10 @@
     <t>KU761564</t>
   </si>
   <si>
-    <t>KX087101</t>
+    <t>KU820898</t>
   </si>
   <si>
-    <t>KU820898</t>
+    <t>KX087101</t>
   </si>
   <si>
     <t>KU365778</t>
@@ -412,10 +412,10 @@
     <t>KU707826</t>
   </si>
   <si>
-    <t>KU365780</t>
+    <t>KU365777</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KU365780</t>
   </si>
   <si>
     <t>KU870645</t>
@@ -424,25 +424,28 @@
     <t>KX694534</t>
   </si>
   <si>
-    <t>KU501216</t>
+    <t>KX262887</t>
   </si>
   <si>
     <t>KU501217</t>
   </si>
   <si>
-    <t>KX262887</t>
+    <t>KU501216</t>
   </si>
   <si>
     <t>KX766029</t>
   </si>
   <si>
+    <t>KX446950</t>
+  </si>
+  <si>
     <t>KX247632</t>
   </si>
   <si>
-    <t>KX446950</t>
+    <t>KX446951</t>
   </si>
   <si>
-    <t>KX446951</t>
+    <t>KX520666</t>
   </si>
   <si>
     <t>KU940228</t>
@@ -454,16 +457,13 @@
     <t>KX197205</t>
   </si>
   <si>
-    <t>KX520666</t>
-  </si>
-  <si>
     <t>KU497555</t>
   </si>
   <si>
-    <t>KX548902</t>
+    <t>KU991811</t>
   </si>
   <si>
-    <t>KU991811</t>
+    <t>KX548902</t>
   </si>
   <si>
     <t>KU647676</t>
@@ -475,10 +475,10 @@
     <t>KU922960</t>
   </si>
   <si>
-    <t>KX702400</t>
+    <t>KX198135</t>
   </si>
   <si>
-    <t>KX198135</t>
+    <t>KX702400</t>
   </si>
   <si>
     <t>KX247646</t>
@@ -526,10 +526,10 @@
     <t>KX266255</t>
   </si>
   <si>
-    <t>KX185891</t>
+    <t>KU820899</t>
   </si>
   <si>
-    <t>KU820899</t>
+    <t>KX185891</t>
   </si>
   <si>
     <t>KU963796</t>
@@ -1601,16 +1601,16 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="P6">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="Q6">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1676,22 +1676,22 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="AN6">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS6">
         <v>1.5</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O7">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="P7">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="Q7">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1858,22 +1858,22 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="AN7">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AS7">
         <v>1.5</v>
@@ -1929,13 +1929,13 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="C8">
         <v>1.67</v>
       </c>
       <c r="D8">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1953,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="L8">
         <v>0.5</v>
@@ -1968,13 +1968,13 @@
         <v>2</v>
       </c>
       <c r="O8">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="P8">
         <v>0.29</v>
       </c>
       <c r="Q8">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="V8">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="W8">
         <v>0.8</v>
@@ -2016,10 +2016,10 @@
         <v>1.76</v>
       </c>
       <c r="AE8">
+        <v>1.2</v>
+      </c>
+      <c r="AF8">
         <v>0.8</v>
-      </c>
-      <c r="AF8">
-        <v>1.2</v>
       </c>
       <c r="AG8">
         <v>2.4</v>
@@ -2058,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
         <v>1.5</v>
-      </c>
-      <c r="AU8">
-        <v>3</v>
       </c>
       <c r="AV8">
         <v>1.5</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AY8">
         <v>2</v>
@@ -2111,13 +2111,13 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1.67</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2135,10 +2135,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0.5</v>
@@ -2150,13 +2150,13 @@
         <v>2</v>
       </c>
       <c r="O9">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="P9">
         <v>0.29</v>
       </c>
       <c r="Q9">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="V9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="W9">
         <v>0.8</v>
@@ -2198,10 +2198,10 @@
         <v>1.76</v>
       </c>
       <c r="AE9">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AF9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AG9">
         <v>2.4</v>
@@ -2240,13 +2240,13 @@
         <v>1</v>
       </c>
       <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
         <v>1.5</v>
       </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
       <c r="AU9">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AV9">
         <v>1.5</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AY9">
         <v>2</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0.67</v>
@@ -2875,16 +2875,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="O13">
-        <v>0.62</v>
+        <v>1.14</v>
       </c>
       <c r="P13">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="Q13">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2893,31 +2893,31 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="U13">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="V13">
         <v>0.27</v>
       </c>
       <c r="W13">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="X13">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Y13">
         <v>0.71</v>
       </c>
       <c r="Z13">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="AA13">
         <v>2.12</v>
       </c>
       <c r="AB13">
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2950,34 +2950,34 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AN13">
+        <v>1.85</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0.46</v>
+      </c>
+      <c r="AQ13">
+        <v>0.46</v>
+      </c>
+      <c r="AR13">
+        <v>0.92</v>
+      </c>
+      <c r="AS13">
         <v>1.5</v>
       </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0.5</v>
-      </c>
-      <c r="AQ13">
-        <v>0.5</v>
-      </c>
-      <c r="AR13">
-        <v>1</v>
-      </c>
-      <c r="AS13">
-        <v>2.4</v>
-      </c>
       <c r="AT13">
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AV13">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AW13">
         <v>0</v>
@@ -2986,28 +2986,28 @@
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA13">
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BC13">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="BD13">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="BE13">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="BF13">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3039,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0.67</v>
@@ -3057,16 +3057,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="O14">
-        <v>1.14</v>
+        <v>0.62</v>
       </c>
       <c r="P14">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="Q14">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -3075,31 +3075,31 @@
         <v>2</v>
       </c>
       <c r="T14">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="U14">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="V14">
         <v>0.27</v>
       </c>
       <c r="W14">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="X14">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Y14">
         <v>0.71</v>
       </c>
       <c r="Z14">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="AA14">
         <v>2.12</v>
       </c>
       <c r="AB14">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -3132,34 +3132,34 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="AN14">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AQ14">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT14">
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AV14">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -3168,28 +3168,28 @@
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AZ14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA14">
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BC14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="BD14">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="BE14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="BF14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>92</v>
       </c>
       <c r="B17">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1.67</v>
@@ -3576,7 +3576,7 @@
         <v>0.33</v>
       </c>
       <c r="E17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3585,34 +3585,34 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N17">
         <v>1.71</v>
       </c>
       <c r="O17">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="P17">
         <v>0.57</v>
       </c>
       <c r="Q17">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3621,19 +3621,19 @@
         <v>2</v>
       </c>
       <c r="T17">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="V17">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="W17">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="X17">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="Y17">
         <v>0.71</v>
@@ -3678,35 +3678,35 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AN17">
+        <v>1.85</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0.46</v>
+      </c>
+      <c r="AQ17">
+        <v>0.46</v>
+      </c>
+      <c r="AR17">
+        <v>0.92</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
         <v>1.5</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0.5</v>
-      </c>
-      <c r="AQ17">
-        <v>0.5</v>
-      </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AS17">
+      <c r="AU17">
+        <v>3</v>
+      </c>
+      <c r="AV17">
         <v>1.5</v>
       </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>1.5</v>
-      </c>
-      <c r="AV17">
-        <v>3</v>
-      </c>
       <c r="AW17">
         <v>0</v>
       </c>
@@ -3717,25 +3717,25 @@
         <v>2</v>
       </c>
       <c r="AZ17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA17">
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="BD17">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="BE17">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="BF17">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>94</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="C19">
         <v>1.67</v>
@@ -3940,7 +3940,7 @@
         <v>0.33</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3949,34 +3949,34 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1.71</v>
       </c>
       <c r="O19">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="P19">
         <v>0.57</v>
       </c>
       <c r="Q19">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>2</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="U19">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="V19">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="W19">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="X19">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Y19">
         <v>0.71</v>
@@ -4042,35 +4042,35 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="AN19">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
         <v>1.5</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>3</v>
       </c>
-      <c r="AV19">
-        <v>1.5</v>
-      </c>
       <c r="AW19">
         <v>0</v>
       </c>
@@ -4081,25 +4081,25 @@
         <v>2</v>
       </c>
       <c r="AZ19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA19">
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="BD19">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="BE19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="BF19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -6050,13 +6050,13 @@
         <v>1.64</v>
       </c>
       <c r="AO30">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AP30">
         <v>0.55</v>
       </c>
       <c r="AQ30">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AR30">
         <v>0.55</v>
@@ -6232,13 +6232,13 @@
         <v>1.64</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AP31">
         <v>0.55</v>
       </c>
       <c r="AQ31">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AR31">
         <v>0.55</v>
@@ -8663,16 +8663,16 @@
         <v>120</v>
       </c>
       <c r="B45">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="D45">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="E45">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -8810,16 +8810,16 @@
         <v>0</v>
       </c>
       <c r="AY45">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AZ45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BA45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BB45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BC45">
         <v>0.57</v>
@@ -8845,16 +8845,16 @@
         <v>121</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="C46">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="D46">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="E46">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -8992,16 +8992,16 @@
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AZ46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BA46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BB46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BC46">
         <v>0.57</v>
@@ -9415,10 +9415,10 @@
         <v>2</v>
       </c>
       <c r="J49">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>1.2</v>
@@ -9445,13 +9445,13 @@
         <v>2</v>
       </c>
       <c r="T49">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="U49">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W49">
         <v>0.88</v>
@@ -9538,16 +9538,16 @@
         <v>0</v>
       </c>
       <c r="AY49">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AZ49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BA49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BB49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BC49">
         <v>0.57</v>
@@ -9597,10 +9597,10 @@
         <v>2</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="L50">
         <v>1.2</v>
@@ -9627,13 +9627,13 @@
         <v>2</v>
       </c>
       <c r="T50">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="U50">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="V50">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>0.88</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="AY50">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AZ50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BA50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BB50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="BC50">
         <v>0.57</v>
@@ -13067,16 +13067,16 @@
         <v>0.8</v>
       </c>
       <c r="N69">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="O69">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="P69">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="Q69">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -13160,16 +13160,16 @@
         <v>0.55</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU69">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AV69">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AW69">
         <v>0</v>
@@ -13249,16 +13249,16 @@
         <v>0.8</v>
       </c>
       <c r="N70">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="O70">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="P70">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="Q70">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -13342,16 +13342,16 @@
         <v>0.55</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU70">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AV70">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AW70">
         <v>0</v>
@@ -13783,10 +13783,10 @@
         <v>2</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="L73">
         <v>1.2</v>
@@ -13965,10 +13965,10 @@
         <v>2</v>
       </c>
       <c r="J74">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>1.2</v>
@@ -14693,10 +14693,10 @@
         <v>2</v>
       </c>
       <c r="J78">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1.2</v>
@@ -14875,10 +14875,10 @@
         <v>2</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="L79">
         <v>1.2</v>
